--- a/POWER_BP/bp_prediction/Compare_GAN.xlsx
+++ b/POWER_BP/bp_prediction/Compare_GAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidadedecoimbra154-my.sharepoint.com/personal/uc2022152689_student_uc_pt/Documents/Bolsa POWER/Main/POWER/POWER_BP/bp_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{65910526-5E97-4C45-AF05-9A39FAA9CF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485EDCAC-912E-B24C-B2BA-A00C8A5838A3}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{65910526-5E97-4C45-AF05-9A39FAA9CF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA0D6720-F7F7-BA46-8166-1BA28B0287A5}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17760" activeTab="5" xr2:uid="{D80FD168-F8DE-5D40-8680-ED066D5B32F6}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17760" activeTab="6" xr2:uid="{D80FD168-F8DE-5D40-8680-ED066D5B32F6}"/>
   </bookViews>
   <sheets>
     <sheet name="NORMAL" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="LSTMGAN" sheetId="2" r:id="rId3"/>
     <sheet name="DFT" sheetId="4" r:id="rId4"/>
     <sheet name="CROP" sheetId="5" r:id="rId5"/>
-    <sheet name="TOTAL" sheetId="6" r:id="rId6"/>
+    <sheet name="MAGNITUDE" sheetId="7" r:id="rId6"/>
+    <sheet name="WINDOW" sheetId="8" r:id="rId7"/>
+    <sheet name="TOTAL" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="333">
   <si>
     <t>Input Size</t>
   </si>
@@ -899,6 +901,147 @@
   </si>
   <si>
     <t>0.0547</t>
+  </si>
+  <si>
+    <t>0.9153</t>
+  </si>
+  <si>
+    <t>0.0664</t>
+  </si>
+  <si>
+    <t>0.1236</t>
+  </si>
+  <si>
+    <t>0.1083</t>
+  </si>
+  <si>
+    <t>0.0528</t>
+  </si>
+  <si>
+    <t>0.0049</t>
+  </si>
+  <si>
+    <t>0.9166</t>
+  </si>
+  <si>
+    <t>0.0582</t>
+  </si>
+  <si>
+    <t>0.0495</t>
+  </si>
+  <si>
+    <t>0.1085</t>
+  </si>
+  <si>
+    <t>0.0609</t>
+  </si>
+  <si>
+    <t>0.0814</t>
+  </si>
+  <si>
+    <t>0.0607</t>
+  </si>
+  <si>
+    <t>0.0587</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>0.9327</t>
+  </si>
+  <si>
+    <t>0.0083</t>
+  </si>
+  <si>
+    <t>0.0621</t>
+  </si>
+  <si>
+    <t>0.0602</t>
+  </si>
+  <si>
+    <t>0.0778</t>
+  </si>
+  <si>
+    <t>0.0466</t>
+  </si>
+  <si>
+    <t>0.0065</t>
+  </si>
+  <si>
+    <t>0.933</t>
+  </si>
+  <si>
+    <t>0.0557</t>
+  </si>
+  <si>
+    <t>0.0064</t>
+  </si>
+  <si>
+    <t>0.0191</t>
+  </si>
+  <si>
+    <t>0.0853</t>
+  </si>
+  <si>
+    <t>0.0046</t>
+  </si>
+  <si>
+    <t>0.9138</t>
+  </si>
+  <si>
+    <t>0.0629</t>
+  </si>
+  <si>
+    <t>-0.003</t>
+  </si>
+  <si>
+    <t>0.1238</t>
+  </si>
+  <si>
+    <t>0.0875</t>
+  </si>
+  <si>
+    <t>0.1261</t>
+  </si>
+  <si>
+    <t>0.1139</t>
+  </si>
+  <si>
+    <t>0.0882</t>
+  </si>
+  <si>
+    <t>0.9321</t>
+  </si>
+  <si>
+    <t>0.0317</t>
+  </si>
+  <si>
+    <t>0.1066</t>
+  </si>
+  <si>
+    <t>0.0596</t>
+  </si>
+  <si>
+    <t>0.0979</t>
+  </si>
+  <si>
+    <t>0.0786</t>
+  </si>
+  <si>
+    <t>0.0055</t>
+  </si>
+  <si>
+    <t>0.0615</t>
+  </si>
+  <si>
+    <t>0.0939</t>
+  </si>
+  <si>
+    <t>0.0981</t>
+  </si>
+  <si>
+    <t>0.0861</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2899,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3124,11 +3267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F2D55E-01D4-BB4A-933E-884664CDDE91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{971ED0AA-6C51-934E-A12C-D64E40979E21}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3158,6 +3301,751 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCBD158-0C36-2941-8275-E423153678E5}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F2D55E-01D4-BB4A-933E-884664CDDE91}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
